--- a/settings/data/Summoned.xlsx
+++ b/settings/data/Summoned.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>string</t>
   </si>
@@ -46,7 +46,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>array_string</t>
+    <t>array_str</t>
   </si>
   <si>
     <t>召唤物ID</t>
@@ -90,6 +90,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">生效条件
 </t>
     </r>
@@ -267,6 +274,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">使用符卡时释放招式
 </t>
     </r>
@@ -333,10 +347,7 @@
     <t>upg_alice</t>
   </si>
   <si>
-    <t>[rou_alice_base]</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>rou_alice_base</t>
   </si>
   <si>
     <t>魔理沙×爱丽丝</t>
@@ -354,7 +365,7 @@
     <t>cp_marisa_alice</t>
   </si>
   <si>
-    <t>[rou_marisa_alice_base]</t>
+    <t>rou_marisa_alice_base</t>
   </si>
   <si>
     <t>爱丽丝×帕秋莉</t>
@@ -366,10 +377,10 @@
     <t>cp_alice_patchouli</t>
   </si>
   <si>
-    <t>[rou_alice_ptchouli1_base]</t>
-  </si>
-  <si>
-    <t>[rou_alice_ptchouli2_base]</t>
+    <t>rou_alice_ptchouli1_base</t>
+  </si>
+  <si>
+    <t>rou_alice_ptchouli2_base</t>
   </si>
 </sst>
 </file>
@@ -999,16 +1010,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1017,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1345,7 +1350,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8:I9"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1367,255 +1372,249 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:17">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="138" spans="1:15">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="138" spans="1:15">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:17">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="6" t="str">
-        <f>""""&amp;C4&amp;"_"&amp;D4&amp;""""</f>
-        <v>"sum_alice_base"</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5" t="str">
+        <f>C4&amp;"_"&amp;D4</f>
+        <v>sum_alice_base</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="b">
+      <c r="I4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>1</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="6" t="str">
-        <f>""""&amp;C5&amp;"_"&amp;D5&amp;""""</f>
-        <v>"sum_alice_marisa"</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5" t="str">
+        <f>C5&amp;"_"&amp;D5</f>
+        <v>sum_alice_marisa</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="6" t="str">
-        <f>""""&amp;C6&amp;"_"&amp;D6&amp;""""</f>
-        <v>"sum_alice_patchouli"</v>
+      <c r="A6" s="5" t="str">
+        <f>C6&amp;"_"&amp;D6</f>
+        <v>sum_alice_patchouli</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="M6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/settings/data/Summoned.xlsx
+++ b/settings/data/Summoned.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1934A49F-42C7-4A60-B7F8-00A1ABFAF5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4DFA52-9C16-43AC-99A2-492421A5D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4416" yWindow="3228" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summoned" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,32 +37,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>array_str</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>召唤物ID</t>
+  </si>
+  <si>
+    <t>中文名</t>
+  </si>
+  <si>
     <t>注释</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>array_str</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>召唤物ID</t>
-  </si>
-  <si>
-    <t>中文名</t>
-  </si>
-  <si>
     <t>组ID</t>
   </si>
   <si>
@@ -73,6 +77,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -84,6 +89,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -98,6 +104,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,6 +116,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -117,6 +125,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">基础持续时间
 </t>
     </r>
@@ -125,6 +141,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +157,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -151,6 +169,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,6 +182,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,6 +194,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,6 +207,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -197,6 +219,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -209,6 +232,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -220,6 +244,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,6 +257,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -243,6 +269,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -260,6 +287,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -271,6 +299,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -283,6 +312,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -294,6 +324,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -309,11 +340,51 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-scdestroy.释放符卡时摧毁：当自机释放符卡时，摧毁该召唤物；</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scdestroy.释放符卡时摧毁并释放招式：当自机释放符卡时，摧毁该召唤物，并释放特殊招式一列中的招式；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>特殊招式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特殊一列可能用到的招式ID</t>
     </r>
   </si>
   <si>
@@ -323,9 +394,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>using_upgrade</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -368,6 +436,9 @@
     <t>爱丽丝</t>
   </si>
   <si>
+    <t>爱丽丝结晶基础招式生成的基础召唤物</t>
+  </si>
+  <si>
     <t>sum_alice</t>
   </si>
   <si>
@@ -377,13 +448,13 @@
     <t>upg_alice</t>
   </si>
   <si>
-    <t>rou_alice_attachment1_base</t>
-  </si>
-  <si>
     <t>sandsoldier</t>
   </si>
   <si>
-    <t>魔理沙×爱丽丝</t>
+    <t>爱丽丝×魔理沙强化</t>
+  </si>
+  <si>
+    <t>魔爱羁绊对上述召唤物的强化，释放符卡时摧毁当前所有爱丽丝基础召唤物并原地生成释放小型魔炮的衍生召唤物，释放完成后再原地重新生成基础召唤物</t>
   </si>
   <si>
     <t>marisa</t>
@@ -395,10 +466,7 @@
     <t>boost</t>
   </si>
   <si>
-    <t>cp_marisa_alice</t>
-  </si>
-  <si>
-    <t>rou_alice_marisa_sum1_base</t>
+    <t>cp_alice_marisa</t>
   </si>
   <si>
     <t>scdestroy</t>
@@ -407,37 +475,33 @@
     <t>爱丽丝×帕秋莉</t>
   </si>
   <si>
+    <t>爱帕羁绊对上述召唤物的强化，召唤物生成时造成AOE伤害、摧毁时生成回复符力的区域</t>
+  </si>
+  <si>
     <t>patchouli</t>
   </si>
   <si>
     <t>cp_alice_patchouli</t>
   </si>
   <si>
-    <t>rou_alice_ptchouli1_base</t>
-  </si>
-  <si>
-    <t>rou_alice_ptchouli2_base</t>
-  </si>
-  <si>
-    <t>sum_alice_marisa_attachment1_base</t>
-  </si>
-  <si>
-    <t>魔理沙×爱丽丝附属1</t>
+    <t>爱丽丝×魔理沙附属1</t>
+  </si>
+  <si>
+    <t>魔爱羁绊强化爱丽丝结晶后，释放符卡时基础召唤物摧毁并释放附属招式1、招式生成此召唤物，此召唤物会释放附属招式2、生成附属攻击，此召唤物摧毁时释放附属招式3、生成原召唤物</t>
   </si>
   <si>
     <t>sum_alice_marisa_attachment1</t>
   </si>
   <si>
-    <t>sumdep_mana_multiply</t>
-  </si>
-  <si>
-    <t>rou_marisa_alice_atk_base</t>
-  </si>
-  <si>
-    <t>rou_alice_marisa_sum2_base</t>
-  </si>
-  <si>
-    <t>string</t>
+    <t>sum_alice_marisa_attachment1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>special_routine</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -445,37 +509,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -488,13 +525,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -511,17 +577,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -530,11 +602,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,6 +626,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Routine"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>rou_basemagic</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>rou_alice_attachment</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>rou_alice_marisa_attachment1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>rou_alice_marisa_attachment2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>rou_alice_marisa_attachment3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>rou_alice_ptchouli_attachment1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>rou_alice_ptchouli_attachment2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sum_Dependence"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>sumdep_marisa_alice_duration</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,358 +946,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="29.875" customWidth="1"/>
-    <col min="13" max="13" width="21.625" customWidth="1"/>
-    <col min="14" max="14" width="37.125" customWidth="1"/>
-    <col min="15" max="17" width="29.875" customWidth="1"/>
-    <col min="18" max="18" width="22.75" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="137.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="29.88671875" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" customWidth="1"/>
+    <col min="15" max="15" width="37.109375" customWidth="1"/>
+    <col min="16" max="16" width="29.88671875" customWidth="1"/>
+    <col min="17" max="18" width="34.21875" customWidth="1"/>
+    <col min="19" max="19" width="22.77734375" customWidth="1"/>
+    <col min="20" max="20" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="116.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="T2" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="T3" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="str">
-        <f>C4&amp;"_"&amp;D4</f>
-        <v>sum_alice_base</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="str">
+        <f>D4</f>
+        <v>sum_alice</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f>[1]Routine!$A$12</f>
+        <v>rou_alice_attachment</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="str">
+        <f>D5&amp;"_"&amp;E5</f>
+        <v>sum_alice_marisa</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="b">
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" s="8" t="str">
+        <f>[1]Routine!$A$13</f>
+        <v>rou_alice_marisa_attachment1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="str">
+        <f>D6&amp;"_"&amp;E6</f>
+        <v>sum_alice_patchouli</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="str">
+        <f>[1]Routine!$A$16</f>
+        <v>rou_alice_ptchouli_attachment1</v>
+      </c>
+      <c r="R6" s="8" t="str">
+        <f>[1]Routine!$A$17</f>
+        <v>rou_alice_ptchouli_attachment2</v>
+      </c>
+      <c r="S6"/>
+    </row>
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f>[2]Sum_Dependence!$A$4</f>
+        <v>sumdep_marisa_alice_duration</v>
+      </c>
+      <c r="K7" s="7" t="b">
+        <f>K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L7">
+        <f>L4</f>
         <v>1</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="str">
-        <f>C5&amp;"_"&amp;D5</f>
-        <v>sum_alice_marisa</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="O7" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="str">
-        <f>C6&amp;"_"&amp;D6</f>
-        <v>sum_alice_patchouli</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="5" t="b">
-        <f>J4</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>K4</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7">
-        <v>999999</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>63</v>
+      <c r="Q7" s="6" t="str">
+        <f>[1]Routine!$A$14</f>
+        <v>rou_alice_marisa_attachment2</v>
+      </c>
+      <c r="R7" s="6" t="str">
+        <f>[1]Routine!$A$15</f>
+        <v>rou_alice_marisa_attachment3</v>
       </c>
     </row>
   </sheetData>

--- a/settings/data/Summoned.xlsx
+++ b/settings/data/Summoned.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4DFA52-9C16-43AC-99A2-492421A5D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4416" yWindow="3228" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Summoned" sheetId="1" r:id="rId1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>string</t>
   </si>
@@ -77,7 +71,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -89,7 +82,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +96,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,7 +107,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,7 +119,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,7 +130,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,7 +145,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -169,7 +156,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,7 +168,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -194,7 +179,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,7 +191,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -219,7 +202,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,7 +214,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -244,7 +225,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,7 +237,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,7 +248,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,7 +265,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,7 +276,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -312,7 +288,6 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,7 +299,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,6 +307,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>特殊</t>
     </r>
     <r>
@@ -340,7 +321,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -352,7 +332,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -361,6 +340,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>特殊招式</t>
     </r>
     <r>
@@ -368,7 +354,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -380,7 +365,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,6 +378,9 @@
     <t>*</t>
   </si>
   <si>
+    <t>upgrade_group</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -433,6 +420,9 @@
     <t>special</t>
   </si>
   <si>
+    <t>special_routine</t>
+  </si>
+  <si>
     <t>爱丽丝</t>
   </si>
   <si>
@@ -484,32 +474,26 @@
     <t>cp_alice_patchouli</t>
   </si>
   <si>
+    <t>sum_alice_marisa_attachment1</t>
+  </si>
+  <si>
     <t>爱丽丝×魔理沙附属1</t>
   </si>
   <si>
     <t>魔爱羁绊强化爱丽丝结晶后，释放符卡时基础召唤物摧毁并释放附属招式1、招式生成此召唤物，此召唤物会释放附属招式2、生成附属攻击，此召唤物摧毁时释放附属招式3、生成原召唤物</t>
-  </si>
-  <si>
-    <t>sum_alice_marisa_attachment1</t>
-  </si>
-  <si>
-    <t>sum_alice_marisa_attachment1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_group</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>special_routine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,7 +505,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -529,27 +512,162 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +676,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -571,9 +875,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -605,42 +1151,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Routine"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>rou_basemagic</v>
-          </cell>
-        </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>rou_alice_attachment</v>
@@ -678,7 +1263,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sum_Dependence"/>
@@ -940,45 +1525,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O15:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="137.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.6636363636364" customWidth="1"/>
+    <col min="2" max="2" width="21.8909090909091" customWidth="1"/>
+    <col min="3" max="3" width="137.663636363636" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6636363636364" customWidth="1"/>
+    <col min="6" max="6" width="15.1090909090909" customWidth="1"/>
+    <col min="7" max="7" width="25.3363636363636" customWidth="1"/>
+    <col min="8" max="8" width="21.8909090909091" customWidth="1"/>
+    <col min="9" max="9" width="18.6636363636364" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="29.88671875" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-    <col min="15" max="15" width="37.109375" customWidth="1"/>
-    <col min="16" max="16" width="29.88671875" customWidth="1"/>
-    <col min="17" max="18" width="34.21875" customWidth="1"/>
-    <col min="19" max="19" width="22.77734375" customWidth="1"/>
-    <col min="20" max="20" width="29.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.8909090909091" customWidth="1"/>
+    <col min="13" max="13" width="29.8909090909091" customWidth="1"/>
+    <col min="14" max="14" width="21.6636363636364" customWidth="1"/>
+    <col min="15" max="15" width="37.1090909090909" customWidth="1"/>
+    <col min="16" max="16" width="29.8909090909091" customWidth="1"/>
+    <col min="17" max="18" width="34.2181818181818" customWidth="1"/>
+    <col min="19" max="19" width="22.7818181818182" customWidth="1"/>
+    <col min="20" max="20" width="29.8909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="128.4" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="138" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1119,77 +1705,77 @@
         <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="6" t="str">
         <f>D4</f>
         <v>sum_alice</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="b">
@@ -1203,79 +1789,79 @@
         <v>rou_alice_attachment</v>
       </c>
       <c r="N4" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P4" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="1:20">
       <c r="A5" s="8" t="str">
         <f>D5&amp;"_"&amp;E5</f>
         <v>sum_alice_marisa</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="S5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T5" s="8" t="str">
         <f>[1]Routine!$A$13</f>
         <v>rou_alice_marisa_attachment1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" spans="1:19">
       <c r="A6" s="8" t="str">
         <f>D6&amp;"_"&amp;E6</f>
         <v>sum_alice_patchouli</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -1289,27 +1875,27 @@
       </c>
       <c r="S6"/>
     </row>
-    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" ht="28" spans="1:18">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>58</v>
+      <c r="C7" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1327,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="6" t="str">
         <f>[1]Routine!$A$14</f>
@@ -1339,8 +1925,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Summoned.xlsx
+++ b/settings/data/Summoned.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3372810A-D8B8-49E0-BB19-57881F25EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView xWindow="570" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summoned" sheetId="1" r:id="rId1"/>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>string</t>
   </si>
@@ -71,6 +77,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -82,6 +89,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -96,6 +104,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -107,6 +116,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -119,6 +129,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +141,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -145,6 +157,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,6 +169,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -168,6 +182,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -179,6 +194,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,6 +207,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -202,6 +219,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -214,6 +232,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -225,6 +244,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -237,6 +257,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,6 +269,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -265,6 +287,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,6 +299,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,6 +312,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,6 +324,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,6 +337,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -321,6 +348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -332,6 +360,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -344,6 +373,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -354,6 +384,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -365,6 +396,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -481,19 +513,28 @@
   </si>
   <si>
     <t>魔爱羁绊强化爱丽丝结晶后，释放符卡时基础召唤物摧毁并释放附属招式1、招式生成此召唤物，此召唤物会释放附属招式2、生成附属攻击，此召唤物摧毁时释放附属招式3、生成原召唤物</t>
+  </si>
+  <si>
+    <t>招式归属
+将在对应技能加载时加载，并在合适时机触发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>routine_group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rou_alice_marisa_attachment1</t>
+  </si>
+  <si>
+    <t>rou_alice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +546,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -512,162 +554,27 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,198 +583,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -877,253 +604,26 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,75 +657,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Routine"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>rou_basemagic</v>
+          </cell>
+        </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>rou_alice_attachment</v>
@@ -1263,7 +727,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sum_Dependence"/>
@@ -1525,46 +989,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O15:O16"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.6636363636364" customWidth="1"/>
-    <col min="2" max="2" width="21.8909090909091" customWidth="1"/>
-    <col min="3" max="3" width="137.663636363636" customWidth="1"/>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="137.625" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="12.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="15.1090909090909" customWidth="1"/>
-    <col min="7" max="7" width="25.3363636363636" customWidth="1"/>
-    <col min="8" max="8" width="21.8909090909091" customWidth="1"/>
-    <col min="9" max="9" width="18.6636363636364" customWidth="1"/>
-    <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.8909090909091" customWidth="1"/>
-    <col min="13" max="13" width="29.8909090909091" customWidth="1"/>
-    <col min="14" max="14" width="21.6636363636364" customWidth="1"/>
-    <col min="15" max="15" width="37.1090909090909" customWidth="1"/>
-    <col min="16" max="16" width="29.8909090909091" customWidth="1"/>
-    <col min="17" max="18" width="34.2181818181818" customWidth="1"/>
-    <col min="19" max="19" width="22.7818181818182" customWidth="1"/>
-    <col min="20" max="20" width="29.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="29.875" customWidth="1"/>
+    <col min="15" max="15" width="21.625" customWidth="1"/>
+    <col min="16" max="16" width="37.125" customWidth="1"/>
+    <col min="17" max="17" width="29.875" customWidth="1"/>
+    <col min="18" max="19" width="34.25" customWidth="1"/>
+    <col min="20" max="20" width="22.75" customWidth="1"/>
+    <col min="21" max="21" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,38 +1047,38 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>3</v>
@@ -1625,8 +1089,11 @@
       <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="138" spans="1:20">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="116.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1642,53 +1109,56 @@
       <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:20">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1705,52 +1175,55 @@
         <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="str">
         <f>D4</f>
         <v>sum_alice</v>
@@ -1767,40 +1240,43 @@
       <c r="E4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
         <v>8</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="b">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>1</v>
       </c>
-      <c r="M4" s="7" t="str">
+      <c r="N4" s="7" t="str">
         <f>[1]Routine!$A$12</f>
         <v>rou_alice_attachment</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>0.5</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>4</v>
       </c>
-      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:20">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="str">
         <f>D5&amp;"_"&amp;E5</f>
         <v>sum_alice_marisa</v>
@@ -1817,27 +1293,30 @@
       <c r="E5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="8"/>
+      <c r="T5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="8" t="str">
+      <c r="U5" s="8" t="str">
         <f>[1]Routine!$A$13</f>
         <v>rou_alice_marisa_attachment1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="str">
         <f>D6&amp;"_"&amp;E6</f>
         <v>sum_alice_patchouli</v>
@@ -1854,28 +1333,31 @@
       <c r="E6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8" t="str">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8" t="str">
         <f>[1]Routine!$A$16</f>
         <v>rou_alice_ptchouli_attachment1</v>
       </c>
-      <c r="R6" s="8" t="str">
+      <c r="S6" s="8" t="str">
         <f>[1]Routine!$A$17</f>
         <v>rou_alice_ptchouli_attachment2</v>
       </c>
-      <c r="S6"/>
+      <c r="T6"/>
     </row>
-    <row r="7" ht="28" spans="1:18">
+    <row r="7" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>59</v>
       </c>
@@ -1892,41 +1374,44 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7" s="6" t="str">
+      <c r="K7" s="6" t="str">
         <f>[2]Sum_Dependence!$A$4</f>
         <v>sumdep_marisa_alice_duration</v>
       </c>
-      <c r="K7" s="7" t="b">
-        <f>K4</f>
+      <c r="L7" s="7" t="b">
+        <f>L4</f>
         <v>0</v>
       </c>
-      <c r="L7">
-        <f>L4</f>
+      <c r="M7">
+        <f>M4</f>
         <v>1</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="6" t="str">
+      <c r="R7" s="6" t="str">
         <f>[1]Routine!$A$14</f>
         <v>rou_alice_marisa_attachment2</v>
       </c>
-      <c r="R7" s="6" t="str">
+      <c r="S7" s="6" t="str">
         <f>[1]Routine!$A$15</f>
         <v>rou_alice_marisa_attachment3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/settings/data/Summoned.xlsx
+++ b/settings/data/Summoned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3372810A-D8B8-49E0-BB19-57881F25EFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AA03E9-8964-4A00-B6FF-E99DBC383833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="3210" windowWidth="34155" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summoned" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>string</t>
   </si>
@@ -488,9 +488,6 @@
     <t>boost</t>
   </si>
   <si>
-    <t>cp_alice_marisa</t>
-  </si>
-  <si>
     <t>scdestroy</t>
   </si>
   <si>
@@ -528,6 +525,17 @@
   </si>
   <si>
     <t>rou_alice</t>
+  </si>
+  <si>
+    <t>cp_marisa_alice</t>
+  </si>
+  <si>
+    <t>array_str</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rou_alice|rou_alice_marisa_attachment3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1001,7 +1009,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1044,8 +1052,8 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1110,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
@@ -1175,7 +1183,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>27</v>
@@ -1240,8 +1248,8 @@
       <c r="E4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
-        <v>65</v>
+      <c r="F4" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>46</v>
@@ -1294,7 +1302,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>51</v>
@@ -1302,14 +1310,14 @@
       <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>53</v>
+      <c r="I5" t="s">
+        <v>65</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="T5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U5" s="8" t="str">
         <f>[1]Routine!$A$13</f>
@@ -1322,19 +1330,19 @@
         <v>sum_alice_patchouli</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>51</v>
@@ -1343,7 +1351,7 @@
         <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
@@ -1359,22 +1367,22 @@
     </row>
     <row r="7" spans="1:21" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>

--- a/settings/data/Summoned.xlsx
+++ b/settings/data/Summoned.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AA03E9-8964-4A00-B6FF-E99DBC383833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DF1EEF-913A-4504-9D0C-3443B734753B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="3210" windowWidth="34155" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="2895" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summoned" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>string</t>
   </si>
@@ -536,6 +535,9 @@
   <si>
     <t>rou_alice|rou_alice_marisa_attachment3</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkdep_marisa_alice_duration</t>
   </si>
 </sst>
 </file>
@@ -726,25 +728,6 @@
         <row r="17">
           <cell r="A17" t="str">
             <v>rou_alice_ptchouli_attachment2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sum_Dependence"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>sumdep_marisa_alice_duration</v>
           </cell>
         </row>
       </sheetData>
@@ -1006,10 +989,10 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1393,9 +1376,8 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" s="6" t="str">
-        <f>[2]Sum_Dependence!$A$4</f>
-        <v>sumdep_marisa_alice_duration</v>
+      <c r="K7" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="L7" s="7" t="b">
         <f>L4</f>
